--- a/Financials/Visa.xlsx
+++ b/Financials/Visa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED689FA0-B906-254B-A324-52CC61A5F1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABD280E-F5C4-A74D-9C9F-0EF646A379B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -510,9 +547,6 @@
   </si>
   <si>
     <t>Buy/Sell</t>
-  </si>
-  <si>
-    <t>Visa</t>
   </si>
   <si>
     <t>Net Cash</t>
@@ -522,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -858,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -928,13 +963,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -966,17 +995,15 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -996,9 +1023,10 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2202,6 +2230,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a256cw&amp;q=XNYS%3aV&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>VISA INC. (XNYS:V)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a256cw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>234.3</v>
+    <v>174.6</v>
+    <v>0.9647</v>
+    <v>-2.1800000000000002</v>
+    <v>-9.554E-3</v>
+    <v>0</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>Visa Inc. (Visa) is a global payments technology company. The Company provides digital payments across more than 200 countries and territories. The Company connects consumers, merchants, financial institutions, businesses, strategic partners and government entities through technologies. The Company operates through the payment services segment. The Company provides transaction processing services, including primarily authorization, clearing and settlement to its financial institution and merchant clients through VisaNet, its transaction processing network. Its core business solutions, including credit, debit, prepaid and cash access programs for individual, business and government account holders. It also provides value-added services to its clients, including issuing solutions, acceptance solutions, risk and identity solutions, open banking and advisory services. It also offers products and solutions that facilitate money movement for all participants in the ecosystem.</v>
+    <v>26500</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>P.O. Box 8999, SAN FRANCISCO, CA, 94128-8999 US</v>
+    <v>226.73</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.999148460156</v>
+    <v>0</v>
+    <v>224.68</v>
+    <v>465133500000</v>
+    <v>VISA INC.</v>
+    <v>VISA INC.</v>
+    <v>226.16</v>
+    <v>31.911899999999999</v>
+    <v>228.17</v>
+    <v>225.99</v>
+    <v>225.99</v>
+    <v>2058204000</v>
+    <v>V</v>
+    <v>VISA INC. (XNYS:V)</v>
+    <v>4285206</v>
+    <v>7178888</v>
+    <v>2007</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2502,10 +2970,10 @@
   <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA84" sqref="AA84:AB84"/>
+      <selection pane="bottomRight" activeCell="V115" sqref="V115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2516,8 +2984,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>159</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2004</v>
@@ -3755,15 +4223,15 @@
       </c>
       <c r="AA16" s="30">
         <f>AB101/T3</f>
-        <v>15.499181166837257</v>
+        <v>15.869447287615149</v>
       </c>
       <c r="AB16" s="30">
         <f>AB101/T28</f>
-        <v>30.372467740857125</v>
+        <v>31.098047736845626</v>
       </c>
       <c r="AC16" s="31">
         <f>AB101/T106</f>
-        <v>25.408635829744394</v>
+        <v>26.015632865372783</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3890,7 +4358,7 @@
         <v>861000000</v>
       </c>
       <c r="Z18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3954,7 +4422,7 @@
       <c r="T19" s="10">
         <v>19535000000</v>
       </c>
-      <c r="Z19" s="67">
+      <c r="Z19" s="54">
         <f>T40-T56-T61</f>
         <v>-3928000000</v>
       </c>
@@ -7993,10 +8461,10 @@
       <c r="T83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA83" s="63" t="s">
+      <c r="AA83" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="AB83" s="64"/>
+      <c r="AB83" s="58"/>
     </row>
     <row r="84" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8059,10 +8527,10 @@
       <c r="T84" s="1">
         <v>67000000</v>
       </c>
-      <c r="AA84" s="65" t="s">
+      <c r="AA84" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="AB84" s="66"/>
+      <c r="AB84" s="60"/>
     </row>
     <row r="85" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8696,10 +9164,10 @@
       <c r="T93" s="1">
         <v>128000000</v>
       </c>
-      <c r="AA93" s="65" t="s">
+      <c r="AA93" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="AB93" s="66"/>
+      <c r="AB93" s="60"/>
     </row>
     <row r="94" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8830,11 +9298,12 @@
       <c r="T95" s="1">
         <v>-1000000000</v>
       </c>
-      <c r="AA95" s="37" t="s">
+      <c r="AA95" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AB95" s="38">
-        <v>0.97</v>
+      <c r="AB95" s="62" cm="1">
+        <f t="array" ref="AB95">_FV(A1,"Beta")</f>
+        <v>0.9647</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -8971,7 +9440,7 @@
       </c>
       <c r="AB97" s="35">
         <f>(AB94)+((AB95)*(AB96-AB94))</f>
-        <v>8.2708500000000004E-2</v>
+        <v>8.2480335000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9035,10 +9504,10 @@
       <c r="T98" s="1">
         <v>-3203000000</v>
       </c>
-      <c r="AA98" s="65" t="s">
+      <c r="AA98" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="AB98" s="66"/>
+      <c r="AB98" s="60"/>
     </row>
     <row r="99" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -9175,7 +9644,7 @@
       </c>
       <c r="AB100" s="33">
         <f>AB99/AB103</f>
-        <v>4.7091546385697597E-2</v>
+        <v>4.6043395644028151E-2</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9239,11 +9708,12 @@
       <c r="T101" s="1">
         <v>-1287000000</v>
       </c>
-      <c r="AA101" s="37" t="s">
+      <c r="AA101" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="AB101" s="39">
-        <v>454281000000</v>
+      <c r="AB101" s="48" cm="1">
+        <f t="array" ref="AB101">_FV(A1,"Market cap",TRUE)</f>
+        <v>465133500000</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9312,7 +9782,7 @@
       </c>
       <c r="AB102" s="33">
         <f>AB101/AB103</f>
-        <v>0.95290845361430243</v>
+        <v>0.95395660435597185</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9379,9 +9849,9 @@
       <c r="AA103" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="AB103" s="40">
+      <c r="AB103" s="37">
         <f>AB99+AB101</f>
-        <v>476731000000</v>
+        <v>487583500000</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9445,10 +9915,10 @@
       <c r="T104" s="11">
         <v>20377000000</v>
       </c>
-      <c r="AA104" s="65" t="s">
+      <c r="AA104" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="AB104" s="66"/>
+      <c r="AB104" s="60"/>
     </row>
     <row r="105" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -9538,7 +10008,7 @@
       </c>
       <c r="AB105" s="26">
         <f>(AB100*AB92)+(AB102*AB97)</f>
-        <v>7.9744333453819982E-2</v>
+        <v>7.9592649552323952E-2</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9602,33 +10072,33 @@
       <c r="T106" s="1">
         <v>17879000000</v>
       </c>
-      <c r="U106" s="41">
+      <c r="U106" s="61">
         <f>T106*(1+$AB$106)</f>
         <v>19894539961.569832</v>
       </c>
-      <c r="V106" s="41">
+      <c r="V106" s="61">
         <f t="shared" ref="V106:Y106" si="29">U106*(1+$AB$106)</f>
         <v>22137296285.166897</v>
       </c>
-      <c r="W106" s="41">
+      <c r="W106" s="61">
         <f t="shared" si="29"/>
         <v>24632883583.330399</v>
       </c>
-      <c r="X106" s="41">
+      <c r="X106" s="61">
         <f t="shared" si="29"/>
         <v>27409804061.595394</v>
       </c>
-      <c r="Y106" s="41">
+      <c r="Y106" s="61">
         <f t="shared" si="29"/>
         <v>30499773043.358612</v>
       </c>
-      <c r="Z106" s="42" t="s">
+      <c r="Z106" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="AA106" s="43" t="s">
+      <c r="AA106" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="AB106" s="44">
+      <c r="AB106" s="40">
         <f>(SUM(U4:Y4)/5)</f>
         <v>0.11273225356954138</v>
       </c>
@@ -9654,138 +10124,139 @@
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
-      <c r="U107" s="42"/>
-      <c r="V107" s="42"/>
-      <c r="W107" s="42"/>
-      <c r="X107" s="42"/>
-      <c r="Y107" s="45">
+      <c r="U107" s="38"/>
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
+      <c r="X107" s="38"/>
+      <c r="Y107" s="41">
         <f>Y106*(1+AB107)/(AB108-AB107)</f>
-        <v>571059421078.0575</v>
-      </c>
-      <c r="Z107" s="46" t="s">
+        <v>572646091109.38037</v>
+      </c>
+      <c r="Z107" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="AA107" s="47" t="s">
+      <c r="AA107" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AB107" s="48">
+      <c r="AB107" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U108" s="45">
+      <c r="U108" s="41">
         <f t="shared" ref="U108:W108" si="30">U107+U106</f>
         <v>19894539961.569832</v>
       </c>
-      <c r="V108" s="45">
+      <c r="V108" s="41">
         <f t="shared" si="30"/>
         <v>22137296285.166897</v>
       </c>
-      <c r="W108" s="45">
+      <c r="W108" s="41">
         <f t="shared" si="30"/>
         <v>24632883583.330399</v>
       </c>
-      <c r="X108" s="45">
+      <c r="X108" s="41">
         <f>X107+X106</f>
         <v>27409804061.595394</v>
       </c>
-      <c r="Y108" s="45">
+      <c r="Y108" s="41">
         <f>Y107+Y106</f>
-        <v>601559194121.41614</v>
-      </c>
-      <c r="Z108" s="46" t="s">
+        <v>603145864152.73901</v>
+      </c>
+      <c r="Z108" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="AA108" s="49" t="s">
+      <c r="AA108" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AB108" s="50">
+      <c r="AB108" s="46">
         <f>AB105</f>
-        <v>7.9744333453819982E-2</v>
+        <v>7.9592649552323952E-2</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U109" s="61" t="s">
+      <c r="U109" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="V109" s="62"/>
+      <c r="V109" s="56"/>
     </row>
     <row r="110" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U110" s="51" t="s">
+      <c r="U110" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="V110" s="52">
+      <c r="V110" s="48">
         <f>NPV(AB108,U108,V108,W108,X108,Y108)</f>
-        <v>487043788385.13867</v>
+        <v>488441233104.18884</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U111" s="51" t="s">
+      <c r="U111" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="V111" s="52">
+      <c r="V111" s="48">
         <f>T40</f>
         <v>18522000000</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U112" s="51" t="s">
+      <c r="U112" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="V112" s="52">
+      <c r="V112" s="48">
         <f>AB99</f>
         <v>22450000000</v>
       </c>
     </row>
     <row r="113" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U113" s="51" t="s">
+      <c r="U113" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="V113" s="52">
+      <c r="V113" s="48">
         <f>V110+V111-V112</f>
-        <v>483115788385.13867</v>
+        <v>484513233104.18884</v>
       </c>
     </row>
     <row r="114" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U114" s="51" t="s">
+      <c r="U114" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="V114" s="53">
+      <c r="V114" s="49">
         <f>T34*(1+(5*Z16))</f>
         <v>1992517898.2511404</v>
       </c>
     </row>
     <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U115" s="54" t="s">
+      <c r="U115" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="V115" s="55">
+      <c r="V115" s="64">
         <f>V113/V114</f>
-        <v>242.46496797302342</v>
+        <v>243.16631410410545</v>
       </c>
     </row>
     <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U116" s="56" t="s">
+      <c r="U116" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="V116" s="57">
-        <v>216.14</v>
+      <c r="V116" s="63" cm="1">
+        <f t="array" ref="V116">_FV(A1,"Price")</f>
+        <v>225.99</v>
       </c>
     </row>
     <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U117" s="58" t="s">
+      <c r="U117" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="V117" s="59">
+      <c r="V117" s="52">
         <f>V115/V116-1</f>
-        <v>0.12179590993348488</v>
+        <v>7.6004752883337412E-2</v>
       </c>
     </row>
     <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U118" s="58" t="s">
+      <c r="U118" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="V118" s="60" t="str">
+      <c r="V118" s="53" t="str">
         <f>IF(V115&gt;V116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Financials/Visa.xlsx
+++ b/Financials/Visa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2290D8E9-3237-6949-9AB9-4A051FFA0E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F238F62-439E-A34D-9AB3-037D78B77AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2565,10 +2565,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
       <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2585,7 +2585,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2724,11 +2724,11 @@
     <v>Powered by Refinitiv</v>
     <v>250.06</v>
     <v>193.32499999999999</v>
-    <v>0.94399999999999995</v>
-    <v>-2.0099999999999998</v>
-    <v>-8.6909999999999991E-3</v>
-    <v>0.16</v>
-    <v>6.979E-4</v>
+    <v>0.94579999999999997</v>
+    <v>3.48</v>
+    <v>1.4801999999999999E-2</v>
+    <v>0.23</v>
+    <v>9.6400000000000001E-4</v>
     <v>USD</v>
     <v>Visa Inc. (Visa) is a global payments technology company. The Company provides digital payments across more than 200 countries and territories. The Company connects consumers, merchants, financial institutions, businesses, strategic partners and government entities through technologies. The Company operates through the payment services segment. The Company provides transaction processing services, including primarily authorization, clearing and settlement to its financial institution and merchant clients through VisaNet, its transaction processing network. Its core business solutions, including credit, debit, prepaid and cash access programs for individual, business and government account holders. It also provides value-added services to its clients, including issuing solutions, acceptance solutions, risk and identity solutions, open banking and advisory services. It also offers products and solutions that facilitate money movement for all participants in the ecosystem.</v>
     <v>26500</v>
@@ -2736,25 +2736,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>P.O. Box 8999, SAN FRANCISCO, CA, 94128-8999 US</v>
-    <v>231.39</v>
+    <v>239.04</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.999952546095</v>
+    <v>45231.999660821093</v>
     <v>0</v>
-    <v>228.03</v>
-    <v>463950500000</v>
+    <v>235.68</v>
+    <v>482790249420</v>
     <v>VISA INC.</v>
     <v>VISA INC.</v>
-    <v>231.17</v>
-    <v>27.656199999999998</v>
-    <v>231.28</v>
-    <v>229.27</v>
-    <v>229.43</v>
+    <v>236.14</v>
+    <v>28.779299999999999</v>
+    <v>235.1</v>
+    <v>238.58</v>
+    <v>238.81</v>
     <v>2023599000</v>
     <v>V</v>
     <v>VISA INC. (XNYS:V)</v>
-    <v>5540934</v>
-    <v>5915935</v>
+    <v>4996404</v>
+    <v>5815499</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2919,9 +2919,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3345,7 +3345,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Q89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V99" sqref="V99"/>
+      <selection pane="bottomRight" activeCell="S115" sqref="S115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4595,15 +4595,15 @@
       </c>
       <c r="AA16" s="27">
         <f>AB102/T3</f>
-        <v>15.829085636301604</v>
+        <v>16.471861119754351</v>
       </c>
       <c r="AB16" s="27">
         <f>AB102/T28</f>
-        <v>31.018954335762519</v>
+        <v>32.27854846693856</v>
       </c>
       <c r="AC16" s="28">
         <f>AB102/T107</f>
-        <v>25.949465853794955</v>
+        <v>27.003202048212987</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4824,15 +4824,15 @@
       </c>
       <c r="AA19" s="27">
         <f>AB102/U3</f>
-        <v>14.227246243483593</v>
+        <v>14.804975449862006</v>
       </c>
       <c r="AB19" s="27">
         <f>AB102/U28</f>
-        <v>25.753566472384126</v>
+        <v>26.799347733555372</v>
       </c>
       <c r="AC19" s="28">
         <f>AB102/U107</f>
-        <v>25.338640087383943</v>
+        <v>26.367572333151283</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="AB22" s="41">
         <f>(-1*T98)/AB102</f>
-        <v>6.9037537409702109E-3</v>
+        <v>6.6343510537918357E-3</v>
       </c>
       <c r="AC22" s="29">
         <f>U107/AB102</f>
-        <v>3.9465417108075107E-2</v>
+        <v>3.7925372399290821E-2</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="AB95" s="55">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="AB96" s="56" cm="1">
         <f t="array" ref="AB96">_FV(A1,"Beta")</f>
-        <v>0.94399999999999995</v>
+        <v>0.94579999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="AB98" s="54">
         <f>(AB95)+((AB96)*(AB97-AB95))</f>
-        <v>8.2009200000000004E-2</v>
+        <v>8.2089450000000008E-2</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="AB101" s="54">
         <f>AB100/AB104</f>
-        <v>4.6155380185670038E-2</v>
+        <v>4.4434306304321353E-2</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="AB102" s="57" cm="1">
         <f t="array" ref="AB102">_FV(A1,"Market cap",TRUE)</f>
-        <v>463950500000</v>
+        <v>482790249420</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="AB103" s="54">
         <f>AB102/AB104</f>
-        <v>0.95384461981433</v>
+        <v>0.95556569369567868</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="AB104" s="58">
         <f>AB100+AB102</f>
-        <v>486400500000</v>
+        <v>505240249420</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -10806,7 +10806,7 @@
       </c>
       <c r="AB106" s="59">
         <f>(AB101*AB93)+(AB103*AB98)</f>
-        <v>7.9136236677127297E-2</v>
+        <v>7.9320049876329735E-2</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -10903,7 +10903,7 @@
       <c r="X108" s="63"/>
       <c r="Y108" s="47">
         <f>Y107*(1+AB108)/(AB109-AB108)</f>
-        <v>517685596934.75824</v>
+        <v>515933804622.89093</v>
       </c>
       <c r="Z108" s="48" t="s">
         <v>143</v>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="Y109" s="47">
         <f>Y108+Y107</f>
-        <v>545027596934.75824</v>
+        <v>543275804622.89093</v>
       </c>
       <c r="Z109" s="48" t="s">
         <v>141</v>
@@ -10944,7 +10944,7 @@
       </c>
       <c r="AB109" s="39">
         <f>AB106</f>
-        <v>7.9136236677127297E-2</v>
+        <v>7.9320049876329735E-2</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.2">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="V111" s="57">
         <f>NPV(AB109,U109,V109,W109,X109,Y109)</f>
-        <v>442860703620.17676</v>
+        <v>441317420621.10846</v>
       </c>
       <c r="W111" s="43"/>
       <c r="X111" s="43"/>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="V114" s="57">
         <f>V111+V112-V113</f>
-        <v>438932703620.17676</v>
+        <v>437389420621.10846</v>
       </c>
       <c r="W114" s="43"/>
       <c r="X114" s="43"/>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="V116" s="66">
         <f>V114/V115</f>
-        <v>220.2904696642544</v>
+        <v>219.51593057458155</v>
       </c>
       <c r="W116" s="43"/>
       <c r="X116" s="43"/>
@@ -11055,7 +11055,7 @@
       </c>
       <c r="V117" s="67" cm="1">
         <f t="array" ref="V117">_FV(A1,"Price")</f>
-        <v>229.27</v>
+        <v>238.58</v>
       </c>
       <c r="W117" s="43"/>
       <c r="X117" s="43"/>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="V118" s="68">
         <f>V116/V117-1</f>
-        <v>-3.9165744911002776E-2</v>
+        <v>-7.9906402151976086E-2</v>
       </c>
       <c r="W118" s="43"/>
       <c r="X118" s="43"/>

--- a/Financials/Visa.xlsx
+++ b/Financials/Visa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F238F62-439E-A34D-9AB3-037D78B77AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FC957D-8BA1-EE4D-B6D4-AC70AD4ECFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2565,9 +2565,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Quality + Value"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -2585,7 +2586,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.3360000000000003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2597,6 +2598,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2722,39 +2724,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>250.06</v>
-    <v>193.32499999999999</v>
-    <v>0.94579999999999997</v>
-    <v>3.48</v>
-    <v>1.4801999999999999E-2</v>
-    <v>0.23</v>
-    <v>9.6400000000000001E-4</v>
+    <v>256.065</v>
+    <v>202.13</v>
+    <v>0.94169999999999998</v>
+    <v>1.29</v>
+    <v>5.1000000000000004E-3</v>
+    <v>0.02</v>
+    <v>7.8670000000000004E-5</v>
     <v>USD</v>
     <v>Visa Inc. (Visa) is a global payments technology company. The Company provides digital payments across more than 200 countries and territories. The Company connects consumers, merchants, financial institutions, businesses, strategic partners and government entities through technologies. The Company operates through the payment services segment. The Company provides transaction processing services, including primarily authorization, clearing and settlement to its financial institution and merchant clients through VisaNet, its transaction processing network. Its core business solutions, including credit, debit, prepaid and cash access programs for individual, business and government account holders. It also provides value-added services to its clients, including issuing solutions, acceptance solutions, risk and identity solutions, open banking and advisory services. It also offers products and solutions that facilitate money movement for all participants in the ecosystem.</v>
-    <v>26500</v>
+    <v>28800</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>P.O. Box 8999, SAN FRANCISCO, CA, 94128-8999 US</v>
-    <v>239.04</v>
+    <v>256.065</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45231.999660821093</v>
+    <v>45260.041517360936</v>
     <v>0</v>
-    <v>235.68</v>
-    <v>482790249420</v>
+    <v>253.52</v>
+    <v>510556126350</v>
     <v>VISA INC.</v>
     <v>VISA INC.</v>
-    <v>236.14</v>
-    <v>28.779299999999999</v>
-    <v>235.1</v>
-    <v>238.58</v>
-    <v>238.81</v>
-    <v>2023599000</v>
+    <v>253.92</v>
+    <v>30.7041</v>
+    <v>252.94</v>
+    <v>254.23</v>
+    <v>254.25</v>
+    <v>2008245000</v>
     <v>V</v>
     <v>VISA INC. (XNYS:V)</v>
-    <v>4996404</v>
-    <v>5815499</v>
+    <v>4955093</v>
+    <v>6345422</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -3345,7 +3347,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Q89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S115" sqref="S115"/>
+      <selection pane="bottomRight" activeCell="X97" sqref="X97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4595,15 +4597,15 @@
       </c>
       <c r="AA16" s="27">
         <f>AB102/T3</f>
-        <v>16.471861119754351</v>
+        <v>17.419178654042987</v>
       </c>
       <c r="AB16" s="27">
         <f>AB102/T28</f>
-        <v>32.27854846693856</v>
+        <v>34.134928551848631</v>
       </c>
       <c r="AC16" s="28">
         <f>AB102/T107</f>
-        <v>27.003202048212987</v>
+        <v>28.556190298674423</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4824,15 +4826,15 @@
       </c>
       <c r="AA19" s="27">
         <f>AB102/U3</f>
-        <v>14.804975449862006</v>
+        <v>15.65642828426863</v>
       </c>
       <c r="AB19" s="27">
         <f>AB102/U28</f>
-        <v>26.799347733555372</v>
+        <v>28.34061206494588</v>
       </c>
       <c r="AC19" s="28">
         <f>AB102/U107</f>
-        <v>26.367572333151283</v>
+        <v>27.884004716002185</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5091,11 +5093,11 @@
       </c>
       <c r="AB22" s="41">
         <f>(-1*T98)/AB102</f>
-        <v>6.6343510537918357E-3</v>
+        <v>6.2735512017032527E-3</v>
       </c>
       <c r="AC22" s="29">
         <f>U107/AB102</f>
-        <v>3.7925372399290821E-2</v>
+        <v>3.5862854356286777E-2</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -5867,7 +5869,7 @@
       </c>
       <c r="U33" s="1" cm="1">
         <f t="array" ref="U33">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>2023599000</v>
+        <v>2008245000</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -5933,7 +5935,7 @@
       </c>
       <c r="U34" s="1" cm="1">
         <f t="array" ref="U34">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>2023599000</v>
+        <v>2008245000</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6015,7 +6017,7 @@
       </c>
       <c r="U35" s="22">
         <f t="shared" si="8"/>
-        <v>-7.5137568555758677E-2</v>
+        <v>-8.2154936014625229E-2</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -9920,7 +9922,7 @@
       </c>
       <c r="AB95" s="55">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.3360000000000003E-2</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9995,7 +9997,7 @@
       </c>
       <c r="AB96" s="56" cm="1">
         <f t="array" ref="AB96">_FV(A1,"Beta")</f>
-        <v>0.94579999999999997</v>
+        <v>0.94169999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -10144,7 +10146,7 @@
       </c>
       <c r="AB98" s="54">
         <f>(AB95)+((AB96)*(AB97-AB95))</f>
-        <v>8.2089450000000008E-2</v>
+        <v>8.1630688000000007E-2</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -10366,7 +10368,7 @@
       </c>
       <c r="AB101" s="54">
         <f>AB100/AB104</f>
-        <v>4.4434306304321353E-2</v>
+        <v>4.2119590920533141E-2</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -10441,7 +10443,7 @@
       </c>
       <c r="AB102" s="57" cm="1">
         <f t="array" ref="AB102">_FV(A1,"Market cap",TRUE)</f>
-        <v>482790249420</v>
+        <v>510556126350</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -10516,7 +10518,7 @@
       </c>
       <c r="AB103" s="54">
         <f>AB102/AB104</f>
-        <v>0.95556569369567868</v>
+        <v>0.95788040907946681</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10593,7 +10595,7 @@
       </c>
       <c r="AB104" s="58">
         <f>AB100+AB102</f>
-        <v>505240249420</v>
+        <v>533006126350</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -10806,7 +10808,7 @@
       </c>
       <c r="AB106" s="59">
         <f>(AB101*AB93)+(AB103*AB98)</f>
-        <v>7.9320049876329735E-2</v>
+        <v>7.9024877046497161E-2</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -10903,7 +10905,7 @@
       <c r="X108" s="63"/>
       <c r="Y108" s="47">
         <f>Y107*(1+AB108)/(AB109-AB108)</f>
-        <v>515933804622.89093</v>
+        <v>518752684543.44598</v>
       </c>
       <c r="Z108" s="48" t="s">
         <v>143</v>
@@ -10934,7 +10936,7 @@
       </c>
       <c r="Y109" s="47">
         <f>Y108+Y107</f>
-        <v>543275804622.89093</v>
+        <v>546094684543.44598</v>
       </c>
       <c r="Z109" s="48" t="s">
         <v>141</v>
@@ -10944,7 +10946,7 @@
       </c>
       <c r="AB109" s="39">
         <f>AB106</f>
-        <v>7.9320049876329735E-2</v>
+        <v>7.9024877046497161E-2</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.2">
@@ -10965,7 +10967,7 @@
       </c>
       <c r="V111" s="57">
         <f>NPV(AB109,U109,V109,W109,X109,Y109)</f>
-        <v>441317420621.10846</v>
+        <v>443800794984.25659</v>
       </c>
       <c r="W111" s="43"/>
       <c r="X111" s="43"/>
@@ -11010,7 +11012,7 @@
       </c>
       <c r="V114" s="57">
         <f>V111+V112-V113</f>
-        <v>437389420621.10846</v>
+        <v>439872794984.25659</v>
       </c>
       <c r="W114" s="43"/>
       <c r="X114" s="43"/>
@@ -11040,7 +11042,7 @@
       </c>
       <c r="V116" s="66">
         <f>V114/V115</f>
-        <v>219.51593057458155</v>
+        <v>220.76228041431338</v>
       </c>
       <c r="W116" s="43"/>
       <c r="X116" s="43"/>
@@ -11055,7 +11057,7 @@
       </c>
       <c r="V117" s="67" cm="1">
         <f t="array" ref="V117">_FV(A1,"Price")</f>
-        <v>238.58</v>
+        <v>254.23</v>
       </c>
       <c r="W117" s="43"/>
       <c r="X117" s="43"/>
@@ -11070,7 +11072,7 @@
       </c>
       <c r="V118" s="68">
         <f>V116/V117-1</f>
-        <v>-7.9906402151976086E-2</v>
+        <v>-0.13164347081653072</v>
       </c>
       <c r="W118" s="43"/>
       <c r="X118" s="43"/>
